--- a/budding_world/excel/budding_world.xlsx
+++ b/budding_world/excel/budding_world.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={95F550C4-7B30-4BC0-A92B-891425C96B1C}</author>
-    <author>tc={FA17509F-612D-462E-854B-440831B8A742}</author>
-    <author>tc={50FCC65C-5ED7-4AAC-A668-B831C114B7E0}</author>
-    <author>tc={3BDB89FD-14B9-4717-A7A0-9D4B43D8CFF0}</author>
-    <author>tc={500376BB-52F3-43D7-BA3D-6400AC7EAD81}</author>
-    <author>tc={598F04CC-AEBD-47BF-8820-B533A03EE5D5}</author>
+    <author>tc={677D5FF2-1DC6-43A7-9E88-A763C959E82D}</author>
+    <author>tc={19DA3E62-E606-48E7-BEE3-54193A336F46}</author>
+    <author>tc={F812969B-14CD-4262-B4C2-60A5A72ED5EE}</author>
+    <author>tc={FA4D6693-CD82-4117-BBF3-0191A14F4AEA}</author>
+    <author>tc={79F75D9A-129F-457B-980A-24AFFD4B98BF}</author>
+    <author>tc={E14F7935-A6FA-46A6-B3E8-2AE2BF7B2B5E}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{95F550C4-7B30-4BC0-A92B-891425C96B1C}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{677D5FF2-1DC6-43A7-9E88-A763C959E82D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{19DA3E62-E606-48E7-BEE3-54193A336F46}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{F812969B-14CD-4262-B4C2-60A5A72ED5EE}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="G9" authorId="1" shapeId="0" xr:uid="{FA17509F-612D-462E-854B-440831B8A742}">
+    <comment ref="I1" authorId="3" shapeId="0" xr:uid="{FA4D6693-CD82-4117-BBF3-0191A14F4AEA}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="4" shapeId="0" xr:uid="{79F75D9A-129F-457B-980A-24AFFD4B98BF}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{50FCC65C-5ED7-4AAC-A668-B831C114B7E0}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{3BDB89FD-14B9-4717-A7A0-9D4B43D8CFF0}">
+    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{E14F7935-A6FA-46A6-B3E8-2AE2BF7B2B5E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{500376BB-52F3-43D7-BA3D-6400AC7EAD81}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="5" shapeId="0" xr:uid="{598F04CC-AEBD-47BF-8820-B533A03EE5D5}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={93B62C7C-3A38-4A28-8B3F-3BB9A19E7AB0}</author>
+    <author>tc={1DD4979B-8C51-4A0D-8736-43188BE6C6CC}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{93B62C7C-3A38-4A28-8B3F-3BB9A19E7AB0}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1DD4979B-8C51-4A0D-8736-43188BE6C6CC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,24 +93,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E09D0F2F-9C6F-47F8-83AA-5737B417E59D}</author>
-    <author>tc={9B6573FE-26D3-48A4-9939-AB86463B156A}</author>
-    <author>tc={14916922-2AD1-4355-B606-979375987FF9}</author>
+    <author>tc={4CF4A4DE-E01A-445A-B8C2-A48C43DEA618}</author>
+    <author>tc={E92BAA29-CBA1-43FE-B463-30C034A55295}</author>
+    <author>tc={D726582E-C66B-4B8C-8AB4-DD05E78866DC}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E09D0F2F-9C6F-47F8-83AA-5737B417E59D}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{4CF4A4DE-E01A-445A-B8C2-A48C43DEA618}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{9B6573FE-26D3-48A4-9939-AB86463B156A}">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{E92BAA29-CBA1-43FE-B463-30C034A55295}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{14916922-2AD1-4355-B606-979375987FF9}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{D726582E-C66B-4B8C-8AB4-DD05E78866DC}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
   </commentList>
@@ -120,22 +120,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={18833560-F812-488C-AA53-E5EA73380B50}</author>
-    <author>tc={F1B1D26F-A316-4110-A5DC-6714ECE93F40}</author>
+    <author>tc={C54E232C-6163-4570-B69E-540133FE4CBF}</author>
+    <author>tc={0E05582A-B12F-4705-86FD-CE43564909E5}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{18833560-F812-488C-AA53-E5EA73380B50}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{F1B1D26F-A316-4110-A5DC-6714ECE93F40}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C54E232C-6163-4570-B69E-540133FE4CBF}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{0E05582A-B12F-4705-86FD-CE43564909E5}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -211,14 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -348,8 +348,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{352412BE-5524-4743-9161-39AF590F2814}" userId="S::::f27f86c0-92c4-4245-85eb-67195cf77b4d" providerId="AD"/>
-  <person displayName="杨行" id="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" userId="S::::66395cfa-1301-4fbb-8eba-99b5b9dd1bfc" providerId="AD"/>
+  <person displayName="杨行" id="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" userId="S::::c48aaab1-d1cd-4be5-b04d-67be6c2163a7" providerId="AD"/>
+  <person displayName="侯清辰" id="{47E18BA3-13F0-445A-AA11-DE2A68AC99FD}" userId="S::::a200c456-183b-4c9b-b83e-7336f972615b" providerId="AD"/>
 </personList>
 </file>
 
@@ -650,30 +650,30 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{95F550C4-7B30-4BC0-A92B-891425C96B1C}" ref="J1" dT="2024-05-31T03:31:01" personId="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" parentId="{}">
+  <threadedComment id="{677D5FF2-1DC6-43A7-9E88-A763C959E82D}" ref="A4" dT="2024-05-28T04:59:59" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{19DA3E62-E606-48E7-BEE3-54193A336F46}" ref="G6" dT="2024-06-14T02:50:34" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{F812969B-14CD-4262-B4C2-60A5A72ED5EE}" ref="J1" dT="2024-05-31T03:31:01" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{FA17509F-612D-462E-854B-440831B8A742}" ref="G9" dT="2024-06-14T02:51:06" personId="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" parentId="{}">
+  <threadedComment id="{FA4D6693-CD82-4117-BBF3-0191A14F4AEA}" ref="I1" dT="2024-05-10T07:08:22" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{79F75D9A-129F-457B-980A-24AFFD4B98BF}" ref="G9" dT="2024-06-14T02:51:06" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{50FCC65C-5ED7-4AAC-A668-B831C114B7E0}" ref="I1" dT="2024-05-10T07:08:22" personId="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{3BDB89FD-14B9-4717-A7A0-9D4B43D8CFF0}" ref="C2" dT="2024-06-14T02:49:51" personId="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" parentId="{}">
+  <threadedComment id="{E14F7935-A6FA-46A6-B3E8-2AE2BF7B2B5E}" ref="C2" dT="2024-06-14T02:49:51" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{500376BB-52F3-43D7-BA3D-6400AC7EAD81}" ref="A4" dT="2024-05-28T04:59:59" personId="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{598F04CC-AEBD-47BF-8820-B533A03EE5D5}" ref="G6" dT="2024-06-14T02:50:34" personId="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{93B62C7C-3A38-4A28-8B3F-3BB9A19E7AB0}" ref="D1" dT="2024-06-09T13:30:31" personId="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" parentId="{}">
+  <threadedComment id="{1DD4979B-8C51-4A0D-8736-43188BE6C6CC}" ref="D1" dT="2024-06-09T13:30:31" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -681,32 +681,32 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E09D0F2F-9C6F-47F8-83AA-5737B417E59D}" ref="E1" dT="2024-06-09T13:30:45" personId="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" parentId="{}">
-    <text>@宾晓华 这里</text>
+  <threadedComment id="{4CF4A4DE-E01A-445A-B8C2-A48C43DEA618}" ref="C5" dT="2024-06-14T02:48:45" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{9B6573FE-26D3-48A4-9939-AB86463B156A}" ref="C6" dT="2024-06-14T02:49:20" personId="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" parentId="{}">
+  <threadedComment id="{E92BAA29-CBA1-43FE-B463-30C034A55295}" ref="C6" dT="2024-06-14T02:49:20" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{14916922-2AD1-4355-B606-979375987FF9}" ref="C5" dT="2024-06-14T02:48:45" personId="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  <threadedComment id="{D726582E-C66B-4B8C-8AB4-DD05E78866DC}" ref="E1" dT="2024-06-09T13:30:45" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+    <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{18833560-F812-488C-AA53-E5EA73380B50}" ref="C1" dT="2024-05-10T07:54:02" personId="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{F1B1D26F-A316-4110-A5DC-6714ECE93F40}" ref="D1" dT="2024-05-10T08:11:19" personId="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" parentId="{}">
+  <threadedComment id="{C54E232C-6163-4570-B69E-540133FE4CBF}" ref="D1" dT="2024-05-10T08:11:19" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{dbcd637f-23a9-4bdd-b893-b0c82171ce32}" ref="D1" dT="2024-05-10T08:15:39" personId="{6C963085-4407-498A-9C3F-F7B5CB9ACFF3}" parentId="{F1B1D26F-A316-4110-A5DC-6714ECE93F40}">
+  <threadedComment id="{143197c6-b53e-4a79-9559-69b7767eac57}" ref="D1" dT="2024-05-10T08:15:39" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{C54E232C-6163-4570-B69E-540133FE4CBF}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{0E05582A-B12F-4705-86FD-CE43564909E5}" ref="C1" dT="2024-05-10T07:54:02" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -903,62 +903,62 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="str">
+      <c r="H4" s="4"/>
+      <c r="I4" s="3" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1328,30 +1328,30 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1775,49 +1775,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1853,7 +1853,7 @@
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -1862,7 +1862,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -1900,7 +1900,7 @@
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -1909,13 +1909,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="3" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -1955,13 +1955,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2003,7 +2003,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2028,7 +2028,7 @@
       <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2037,7 +2037,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">

--- a/budding_world/excel/budding_world.xlsx
+++ b/budding_world/excel/budding_world.xlsx
@@ -33,40 +33,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={677D5FF2-1DC6-43A7-9E88-A763C959E82D}</author>
-    <author>tc={19DA3E62-E606-48E7-BEE3-54193A336F46}</author>
-    <author>tc={F812969B-14CD-4262-B4C2-60A5A72ED5EE}</author>
-    <author>tc={FA4D6693-CD82-4117-BBF3-0191A14F4AEA}</author>
-    <author>tc={79F75D9A-129F-457B-980A-24AFFD4B98BF}</author>
-    <author>tc={E14F7935-A6FA-46A6-B3E8-2AE2BF7B2B5E}</author>
+    <author>tc={E7791583-CE15-4E79-812F-3C767E1BFA02}</author>
+    <author>tc={9FC3AB3F-3201-4D30-ACB3-A4A4C33024CC}</author>
+    <author>tc={039A7D5E-7D53-4E12-8379-1307F3BD645E}</author>
+    <author>tc={9D8C4EEB-2033-417D-A2AA-BCCCA36D84B8}</author>
+    <author>tc={CBDB902E-D02D-41C7-8CDA-0A099CA46A82}</author>
+    <author>tc={7846FC49-061B-432B-9FA3-6F0AF2AC6DA8}</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{677D5FF2-1DC6-43A7-9E88-A763C959E82D}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E7791583-CE15-4E79-812F-3C767E1BFA02}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{9FC3AB3F-3201-4D30-ACB3-A4A4C33024CC}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="2" shapeId="0" xr:uid="{039A7D5E-7D53-4E12-8379-1307F3BD645E}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{9D8C4EEB-2033-417D-A2AA-BCCCA36D84B8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{19DA3E62-E606-48E7-BEE3-54193A336F46}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{F812969B-14CD-4262-B4C2-60A5A72ED5EE}">
+    <comment ref="J1" authorId="4" shapeId="0" xr:uid="{CBDB902E-D02D-41C7-8CDA-0A099CA46A82}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="3" shapeId="0" xr:uid="{FA4D6693-CD82-4117-BBF3-0191A14F4AEA}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="4" shapeId="0" xr:uid="{79F75D9A-129F-457B-980A-24AFFD4B98BF}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{E14F7935-A6FA-46A6-B3E8-2AE2BF7B2B5E}">
+    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{7846FC49-061B-432B-9FA3-6F0AF2AC6DA8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={1DD4979B-8C51-4A0D-8736-43188BE6C6CC}</author>
+    <author>tc={46E9F184-880D-4C34-A1F2-3B09E51A2435}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1DD4979B-8C51-4A0D-8736-43188BE6C6CC}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{46E9F184-880D-4C34-A1F2-3B09E51A2435}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,24 +93,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4CF4A4DE-E01A-445A-B8C2-A48C43DEA618}</author>
-    <author>tc={E92BAA29-CBA1-43FE-B463-30C034A55295}</author>
-    <author>tc={D726582E-C66B-4B8C-8AB4-DD05E78866DC}</author>
+    <author>tc={B8621DB6-7411-4EA0-9B19-A1BDD6F32662}</author>
+    <author>tc={BAD9B2D8-71F1-426C-8BBE-C46B2D6F521F}</author>
+    <author>tc={9CAEE42C-D7D8-42B6-8EB6-024D80FB2F15}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{4CF4A4DE-E01A-445A-B8C2-A48C43DEA618}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{E92BAA29-CBA1-43FE-B463-30C034A55295}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{B8621DB6-7411-4EA0-9B19-A1BDD6F32662}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{D726582E-C66B-4B8C-8AB4-DD05E78866DC}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{BAD9B2D8-71F1-426C-8BBE-C46B2D6F521F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{9CAEE42C-D7D8-42B6-8EB6-024D80FB2F15}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
   </commentList>
@@ -120,11 +120,11 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C54E232C-6163-4570-B69E-540133FE4CBF}</author>
-    <author>tc={0E05582A-B12F-4705-86FD-CE43564909E5}</author>
+    <author>tc={5E2742A9-DE64-4E40-8B18-ABBA01DA2712}</author>
+    <author>tc={FA110854-7FB2-4FBD-B45A-E6E07DD00872}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C54E232C-6163-4570-B69E-540133FE4CBF}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5E2742A9-DE64-4E40-8B18-ABBA01DA2712}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -133,7 +133,7 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{0E05582A-B12F-4705-86FD-CE43564909E5}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{FA110854-7FB2-4FBD-B45A-E6E07DD00872}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
@@ -211,14 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -348,8 +348,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" userId="S::::c48aaab1-d1cd-4be5-b04d-67be6c2163a7" providerId="AD"/>
-  <person displayName="侯清辰" id="{47E18BA3-13F0-445A-AA11-DE2A68AC99FD}" userId="S::::a200c456-183b-4c9b-b83e-7336f972615b" providerId="AD"/>
+  <person displayName="侯清辰" id="{91D56D95-FDB9-4836-9C54-3D0627C97169}" userId="S::::c9654bac-ddba-4e39-91da-8ec328277fde" providerId="AD"/>
+  <person displayName="杨行" id="{C054F871-78AD-4913-BCE1-AE67522A8C33}" userId="S::::8a1e3c7f-fa95-4c2a-a26c-a47ccc0432f4" providerId="AD"/>
 </personList>
 </file>
 
@@ -650,22 +650,22 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{677D5FF2-1DC6-43A7-9E88-A763C959E82D}" ref="A4" dT="2024-05-28T04:59:59" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+  <threadedComment id="{E7791583-CE15-4E79-812F-3C767E1BFA02}" ref="I1" dT="2024-05-10T07:08:22" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{9FC3AB3F-3201-4D30-ACB3-A4A4C33024CC}" ref="G6" dT="2024-06-14T02:50:34" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{039A7D5E-7D53-4E12-8379-1307F3BD645E}" ref="G9" dT="2024-06-14T02:51:06" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{9D8C4EEB-2033-417D-A2AA-BCCCA36D84B8}" ref="A4" dT="2024-05-28T04:59:59" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{19DA3E62-E606-48E7-BEE3-54193A336F46}" ref="G6" dT="2024-06-14T02:50:34" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{F812969B-14CD-4262-B4C2-60A5A72ED5EE}" ref="J1" dT="2024-05-31T03:31:01" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+  <threadedComment id="{CBDB902E-D02D-41C7-8CDA-0A099CA46A82}" ref="J1" dT="2024-05-31T03:31:01" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{FA4D6693-CD82-4117-BBF3-0191A14F4AEA}" ref="I1" dT="2024-05-10T07:08:22" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{79F75D9A-129F-457B-980A-24AFFD4B98BF}" ref="G9" dT="2024-06-14T02:51:06" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{E14F7935-A6FA-46A6-B3E8-2AE2BF7B2B5E}" ref="C2" dT="2024-06-14T02:49:51" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+  <threadedComment id="{7846FC49-061B-432B-9FA3-6F0AF2AC6DA8}" ref="C2" dT="2024-06-14T02:49:51" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
@@ -673,7 +673,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{1DD4979B-8C51-4A0D-8736-43188BE6C6CC}" ref="D1" dT="2024-06-09T13:30:31" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+  <threadedComment id="{46E9F184-880D-4C34-A1F2-3B09E51A2435}" ref="D1" dT="2024-06-09T13:30:31" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -681,31 +681,31 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{4CF4A4DE-E01A-445A-B8C2-A48C43DEA618}" ref="C5" dT="2024-06-14T02:48:45" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
-  </threadedComment>
-  <threadedComment id="{E92BAA29-CBA1-43FE-B463-30C034A55295}" ref="C6" dT="2024-06-14T02:49:20" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+  <threadedComment id="{B8621DB6-7411-4EA0-9B19-A1BDD6F32662}" ref="C6" dT="2024-06-14T02:49:20" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{D726582E-C66B-4B8C-8AB4-DD05E78866DC}" ref="E1" dT="2024-06-09T13:30:45" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+  <threadedComment id="{BAD9B2D8-71F1-426C-8BBE-C46B2D6F521F}" ref="E1" dT="2024-06-09T13:30:45" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
     <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{9CAEE42C-D7D8-42B6-8EB6-024D80FB2F15}" ref="C5" dT="2024-06-14T02:48:45" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{C54E232C-6163-4570-B69E-540133FE4CBF}" ref="D1" dT="2024-05-10T08:11:19" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+  <threadedComment id="{5E2742A9-DE64-4E40-8B18-ABBA01DA2712}" ref="D1" dT="2024-05-10T08:11:19" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{143197c6-b53e-4a79-9559-69b7767eac57}" ref="D1" dT="2024-05-10T08:15:39" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{C54E232C-6163-4570-B69E-540133FE4CBF}">
+  <threadedComment id="{c5ee77a3-582c-4933-96ad-d79527289939}" ref="D1" dT="2024-05-10T08:15:39" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{5E2742A9-DE64-4E40-8B18-ABBA01DA2712}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{0E05582A-B12F-4705-86FD-CE43564909E5}" ref="C1" dT="2024-05-10T07:54:02" personId="{77B81342-B52C-40BB-8506-14D4DAC76CFB}" parentId="{}">
+  <threadedComment id="{FA110854-7FB2-4FBD-B45A-E6E07DD00872}" ref="C1" dT="2024-05-10T07:54:02" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
@@ -903,62 +903,62 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3" t="str">
+      <c r="H4" s="3"/>
+      <c r="I4" s="4" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1328,30 +1328,30 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1775,49 +1775,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1853,7 +1853,7 @@
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -1862,7 +1862,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -1900,7 +1900,7 @@
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -1909,13 +1909,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -1955,13 +1955,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2003,7 +2003,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2028,7 +2028,7 @@
       <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2037,7 +2037,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">

--- a/budding_world/excel/budding_world.xlsx
+++ b/budding_world/excel/budding_world.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E7791583-CE15-4E79-812F-3C767E1BFA02}</author>
-    <author>tc={9FC3AB3F-3201-4D30-ACB3-A4A4C33024CC}</author>
-    <author>tc={039A7D5E-7D53-4E12-8379-1307F3BD645E}</author>
-    <author>tc={9D8C4EEB-2033-417D-A2AA-BCCCA36D84B8}</author>
-    <author>tc={CBDB902E-D02D-41C7-8CDA-0A099CA46A82}</author>
-    <author>tc={7846FC49-061B-432B-9FA3-6F0AF2AC6DA8}</author>
+    <author>tc={E40DEB1C-1802-47AF-B614-0B48C82796BD}</author>
+    <author>tc={051EB47C-0772-488E-A26D-D2041A924DAE}</author>
+    <author>tc={8A975776-B3C1-46BE-A551-74599DA09C48}</author>
+    <author>tc={D3C164AF-7B7D-44DA-A864-1D51918917E6}</author>
+    <author>tc={84E0AF70-E309-4646-8169-99CA5C0133D5}</author>
+    <author>tc={E52078AF-0754-499E-8EE2-7E15553099C4}</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E7791583-CE15-4E79-812F-3C767E1BFA02}">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{E40DEB1C-1802-47AF-B614-0B48C82796BD}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{051EB47C-0772-488E-A26D-D2041A924DAE}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{8A975776-B3C1-46BE-A551-74599DA09C48}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="3" shapeId="0" xr:uid="{D3C164AF-7B7D-44DA-A864-1D51918917E6}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="4" shapeId="0" xr:uid="{84E0AF70-E309-4646-8169-99CA5C0133D5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
-    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{9FC3AB3F-3201-4D30-ACB3-A4A4C33024CC}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="2" shapeId="0" xr:uid="{039A7D5E-7D53-4E12-8379-1307F3BD645E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{9D8C4EEB-2033-417D-A2AA-BCCCA36D84B8}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="4" shapeId="0" xr:uid="{CBDB902E-D02D-41C7-8CDA-0A099CA46A82}">
+    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{E52078AF-0754-499E-8EE2-7E15553099C4}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{7846FC49-061B-432B-9FA3-6F0AF2AC6DA8}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={46E9F184-880D-4C34-A1F2-3B09E51A2435}</author>
+    <author>tc={916FFE66-F7AF-424E-9AAB-C7BE4665386E}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{46E9F184-880D-4C34-A1F2-3B09E51A2435}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{916FFE66-F7AF-424E-9AAB-C7BE4665386E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,22 +93,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B8621DB6-7411-4EA0-9B19-A1BDD6F32662}</author>
-    <author>tc={BAD9B2D8-71F1-426C-8BBE-C46B2D6F521F}</author>
-    <author>tc={9CAEE42C-D7D8-42B6-8EB6-024D80FB2F15}</author>
+    <author>tc={C8837934-6527-49CC-92E2-B9A51415F9D3}</author>
+    <author>tc={EE92B825-D70A-48EA-9851-42A0B530423F}</author>
+    <author>tc={E99D6053-9A0C-473D-A35A-6C07C501CD5C}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{B8621DB6-7411-4EA0-9B19-A1BDD6F32662}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{C8837934-6527-49CC-92E2-B9A51415F9D3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{BAD9B2D8-71F1-426C-8BBE-C46B2D6F521F}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{EE92B825-D70A-48EA-9851-42A0B530423F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{9CAEE42C-D7D8-42B6-8EB6-024D80FB2F15}">
+    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{E99D6053-9A0C-473D-A35A-6C07C501CD5C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
@@ -120,11 +120,11 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5E2742A9-DE64-4E40-8B18-ABBA01DA2712}</author>
-    <author>tc={FA110854-7FB2-4FBD-B45A-E6E07DD00872}</author>
+    <author>tc={21017B20-1DF5-4C00-AF3D-E4C04CC3F622}</author>
+    <author>tc={E71E4B46-876C-4E4E-B277-36428D2D472A}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5E2742A9-DE64-4E40-8B18-ABBA01DA2712}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{21017B20-1DF5-4C00-AF3D-E4C04CC3F622}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -133,7 +133,7 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{FA110854-7FB2-4FBD-B45A-E6E07DD00872}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{E71E4B46-876C-4E4E-B277-36428D2D472A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
@@ -211,14 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -348,8 +348,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{91D56D95-FDB9-4836-9C54-3D0627C97169}" userId="S::::c9654bac-ddba-4e39-91da-8ec328277fde" providerId="AD"/>
-  <person displayName="杨行" id="{C054F871-78AD-4913-BCE1-AE67522A8C33}" userId="S::::8a1e3c7f-fa95-4c2a-a26c-a47ccc0432f4" providerId="AD"/>
+  <person displayName="杨行" id="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" userId="S::::a5778dd6-c214-4e42-96d5-1043ec347be2" providerId="AD"/>
+  <person displayName="侯清辰" id="{A24B0E5E-C00E-4638-9814-2378ED723271}" userId="S::::27ca105b-5286-4f6f-a609-bf7c2bfa06d7" providerId="AD"/>
 </personList>
 </file>
 
@@ -650,30 +650,30 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E7791583-CE15-4E79-812F-3C767E1BFA02}" ref="I1" dT="2024-05-10T07:08:22" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
+  <threadedComment id="{E40DEB1C-1802-47AF-B614-0B48C82796BD}" ref="G9" dT="2024-06-14T02:51:06" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{051EB47C-0772-488E-A26D-D2041A924DAE}" ref="A4" dT="2024-05-28T04:59:59" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{8A975776-B3C1-46BE-A551-74599DA09C48}" ref="C2" dT="2024-06-14T02:49:51" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{D3C164AF-7B7D-44DA-A864-1D51918917E6}" ref="G6" dT="2024-06-14T02:50:34" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{84E0AF70-E309-4646-8169-99CA5C0133D5}" ref="I1" dT="2024-05-10T07:08:22" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{9FC3AB3F-3201-4D30-ACB3-A4A4C33024CC}" ref="G6" dT="2024-06-14T02:50:34" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{039A7D5E-7D53-4E12-8379-1307F3BD645E}" ref="G9" dT="2024-06-14T02:51:06" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{9D8C4EEB-2033-417D-A2AA-BCCCA36D84B8}" ref="A4" dT="2024-05-28T04:59:59" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{CBDB902E-D02D-41C7-8CDA-0A099CA46A82}" ref="J1" dT="2024-05-31T03:31:01" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
+  <threadedComment id="{E52078AF-0754-499E-8EE2-7E15553099C4}" ref="J1" dT="2024-05-31T03:31:01" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{7846FC49-061B-432B-9FA3-6F0AF2AC6DA8}" ref="C2" dT="2024-06-14T02:49:51" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{46E9F184-880D-4C34-A1F2-3B09E51A2435}" ref="D1" dT="2024-06-09T13:30:31" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
+  <threadedComment id="{916FFE66-F7AF-424E-9AAB-C7BE4665386E}" ref="D1" dT="2024-06-09T13:30:31" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -681,13 +681,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B8621DB6-7411-4EA0-9B19-A1BDD6F32662}" ref="C6" dT="2024-06-14T02:49:20" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
+  <threadedComment id="{C8837934-6527-49CC-92E2-B9A51415F9D3}" ref="C6" dT="2024-06-14T02:49:20" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{BAD9B2D8-71F1-426C-8BBE-C46B2D6F521F}" ref="E1" dT="2024-06-09T13:30:45" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
+  <threadedComment id="{EE92B825-D70A-48EA-9851-42A0B530423F}" ref="E1" dT="2024-06-09T13:30:45" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{9CAEE42C-D7D8-42B6-8EB6-024D80FB2F15}" ref="C5" dT="2024-06-14T02:48:45" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
+  <threadedComment id="{E99D6053-9A0C-473D-A35A-6C07C501CD5C}" ref="C5" dT="2024-06-14T02:48:45" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
 </ThreadedComments>
@@ -695,17 +695,17 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{5E2742A9-DE64-4E40-8B18-ABBA01DA2712}" ref="D1" dT="2024-05-10T08:11:19" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
+  <threadedComment id="{21017B20-1DF5-4C00-AF3D-E4C04CC3F622}" ref="D1" dT="2024-05-10T08:11:19" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{c5ee77a3-582c-4933-96ad-d79527289939}" ref="D1" dT="2024-05-10T08:15:39" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{5E2742A9-DE64-4E40-8B18-ABBA01DA2712}">
+  <threadedComment id="{124a00f1-75a3-4f2e-aa06-28d51b088fa2}" ref="D1" dT="2024-05-10T08:15:39" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{21017B20-1DF5-4C00-AF3D-E4C04CC3F622}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{FA110854-7FB2-4FBD-B45A-E6E07DD00872}" ref="C1" dT="2024-05-10T07:54:02" personId="{C054F871-78AD-4913-BCE1-AE67522A8C33}" parentId="{}">
+  <threadedComment id="{E71E4B46-876C-4E4E-B277-36428D2D472A}" ref="C1" dT="2024-05-10T07:54:02" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
@@ -834,10 +834,10 @@
         <v>description</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>props_on_actor</v>
+        <v>actor_prop</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>props_in_stage</v>
+        <v>stage_prop</v>
       </c>
       <c r="F1" s="1" t="str">
         <v>actors_in_stage</v>
@@ -903,62 +903,62 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="str">
+      <c r="H4" s="4"/>
+      <c r="I4" s="3" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1270,10 +1270,10 @@
         <v>description</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>props_on_actor</v>
+        <v>actor_prop</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>props_in_stage</v>
+        <v>stage_prop</v>
       </c>
       <c r="F1" s="1" t="str">
         <v>actors_in_stage</v>
@@ -1328,30 +1328,30 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1775,49 +1775,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1853,7 +1853,7 @@
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -1862,7 +1862,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -1900,7 +1900,7 @@
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -1909,13 +1909,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="3" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -1955,13 +1955,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2003,7 +2003,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2028,7 +2028,7 @@
       <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2037,7 +2037,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">

--- a/budding_world/excel/budding_world.xlsx
+++ b/budding_world/excel/budding_world.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E40DEB1C-1802-47AF-B614-0B48C82796BD}</author>
-    <author>tc={051EB47C-0772-488E-A26D-D2041A924DAE}</author>
-    <author>tc={8A975776-B3C1-46BE-A551-74599DA09C48}</author>
-    <author>tc={D3C164AF-7B7D-44DA-A864-1D51918917E6}</author>
-    <author>tc={84E0AF70-E309-4646-8169-99CA5C0133D5}</author>
-    <author>tc={E52078AF-0754-499E-8EE2-7E15553099C4}</author>
+    <author>tc={B805BC4E-E4F0-422F-B08A-442176055234}</author>
+    <author>tc={FF6E24B7-7C66-4EFC-A2C5-F05E36C190BF}</author>
+    <author>tc={3C0B8EAE-D90E-4BEB-BF52-149D3ABDCF72}</author>
+    <author>tc={98D40D29-4732-4530-8D5E-7C7B249F33AE}</author>
+    <author>tc={A713A927-6E74-4551-9890-1F228C2CDDC7}</author>
+    <author>tc={13011700-8E0A-4DC4-8198-C3D8C995D4CC}</author>
   </authors>
   <commentList>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{E40DEB1C-1802-47AF-B614-0B48C82796BD}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{B805BC4E-E4F0-422F-B08A-442176055234}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{051EB47C-0772-488E-A26D-D2041A924DAE}">
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{FF6E24B7-7C66-4EFC-A2C5-F05E36C190BF}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{3C0B8EAE-D90E-4BEB-BF52-149D3ABDCF72}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{8A975776-B3C1-46BE-A551-74599DA09C48}">
+    <comment ref="I1" authorId="3" shapeId="0" xr:uid="{98D40D29-4732-4530-8D5E-7C7B249F33AE}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
-    <comment ref="G6" authorId="3" shapeId="0" xr:uid="{D3C164AF-7B7D-44DA-A864-1D51918917E6}">
+    <comment ref="G6" authorId="4" shapeId="0" xr:uid="{A713A927-6E74-4551-9890-1F228C2CDDC7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="4" shapeId="0" xr:uid="{84E0AF70-E309-4646-8169-99CA5C0133D5}">
+    <comment ref="G9" authorId="5" shapeId="0" xr:uid="{13011700-8E0A-4DC4-8198-C3D8C995D4CC}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{E52078AF-0754-499E-8EE2-7E15553099C4}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={916FFE66-F7AF-424E-9AAB-C7BE4665386E}</author>
+    <author>tc={3920B7A9-FA24-41ED-B698-5C1EFF2C930F}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{916FFE66-F7AF-424E-9AAB-C7BE4665386E}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3920B7A9-FA24-41ED-B698-5C1EFF2C930F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,24 +93,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C8837934-6527-49CC-92E2-B9A51415F9D3}</author>
-    <author>tc={EE92B825-D70A-48EA-9851-42A0B530423F}</author>
-    <author>tc={E99D6053-9A0C-473D-A35A-6C07C501CD5C}</author>
+    <author>tc={BE62629C-0613-49E0-8C30-D51F4822090C}</author>
+    <author>tc={BFFABBA7-192F-4911-ACD6-013685CB1D81}</author>
+    <author>tc={2FE81BD0-C4CF-4E2B-9F98-29D079FC1621}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{C8837934-6527-49CC-92E2-B9A51415F9D3}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{BE62629C-0613-49E0-8C30-D51F4822090C}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{EE92B825-D70A-48EA-9851-42A0B530423F}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{BFFABBA7-192F-4911-ACD6-013685CB1D81}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{E99D6053-9A0C-473D-A35A-6C07C501CD5C}">
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{2FE81BD0-C4CF-4E2B-9F98-29D079FC1621}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
   </commentList>
@@ -120,22 +120,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={21017B20-1DF5-4C00-AF3D-E4C04CC3F622}</author>
-    <author>tc={E71E4B46-876C-4E4E-B277-36428D2D472A}</author>
+    <author>tc={E5092FB5-9A77-4C7D-B4CD-94339F76FC79}</author>
+    <author>tc={F2BC65CD-8DE9-4BDD-AB6B-C4CAB0A161C7}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{21017B20-1DF5-4C00-AF3D-E4C04CC3F622}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E5092FB5-9A77-4C7D-B4CD-94339F76FC79}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{F2BC65CD-8DE9-4BDD-AB6B-C4CAB0A161C7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{E71E4B46-876C-4E4E-B277-36428D2D472A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -211,14 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -348,8 +348,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" userId="S::::a5778dd6-c214-4e42-96d5-1043ec347be2" providerId="AD"/>
-  <person displayName="侯清辰" id="{A24B0E5E-C00E-4638-9814-2378ED723271}" userId="S::::27ca105b-5286-4f6f-a609-bf7c2bfa06d7" providerId="AD"/>
+  <person displayName="侯清辰" id="{1EADEB8F-88D6-4E6C-B37D-09DC2D52532A}" userId="S::::7fa3b6bd-d7f5-4c45-ba27-0c30e4dd86f6" providerId="AD"/>
+  <person displayName="杨行" id="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" userId="S::::f290f61b-25bf-45bf-a71e-b2a07bb6b92e" providerId="AD"/>
 </personList>
 </file>
 
@@ -650,30 +650,30 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E40DEB1C-1802-47AF-B614-0B48C82796BD}" ref="G9" dT="2024-06-14T02:51:06" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  <threadedComment id="{B805BC4E-E4F0-422F-B08A-442176055234}" ref="J1" dT="2024-05-31T03:31:01" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{051EB47C-0772-488E-A26D-D2041A924DAE}" ref="A4" dT="2024-05-28T04:59:59" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
+  <threadedComment id="{FF6E24B7-7C66-4EFC-A2C5-F05E36C190BF}" ref="C2" dT="2024-06-14T02:49:51" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{3C0B8EAE-D90E-4BEB-BF52-149D3ABDCF72}" ref="A4" dT="2024-05-28T04:59:59" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{8A975776-B3C1-46BE-A551-74599DA09C48}" ref="C2" dT="2024-06-14T02:49:51" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  <threadedComment id="{98D40D29-4732-4530-8D5E-7C7B249F33AE}" ref="I1" dT="2024-05-10T07:08:22" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{D3C164AF-7B7D-44DA-A864-1D51918917E6}" ref="G6" dT="2024-06-14T02:50:34" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
+  <threadedComment id="{A713A927-6E74-4551-9890-1F228C2CDDC7}" ref="G6" dT="2024-06-14T02:50:34" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{84E0AF70-E309-4646-8169-99CA5C0133D5}" ref="I1" dT="2024-05-10T07:08:22" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{E52078AF-0754-499E-8EE2-7E15553099C4}" ref="J1" dT="2024-05-31T03:31:01" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  <threadedComment id="{13011700-8E0A-4DC4-8198-C3D8C995D4CC}" ref="G9" dT="2024-06-14T02:51:06" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{916FFE66-F7AF-424E-9AAB-C7BE4665386E}" ref="D1" dT="2024-06-09T13:30:31" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
+  <threadedComment id="{3920B7A9-FA24-41ED-B698-5C1EFF2C930F}" ref="D1" dT="2024-06-09T13:30:31" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -681,32 +681,32 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{C8837934-6527-49CC-92E2-B9A51415F9D3}" ref="C6" dT="2024-06-14T02:49:20" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  <threadedComment id="{BE62629C-0613-49E0-8C30-D51F4822090C}" ref="C5" dT="2024-06-14T02:48:45" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{EE92B825-D70A-48EA-9851-42A0B530423F}" ref="E1" dT="2024-06-09T13:30:45" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
+  <threadedComment id="{BFFABBA7-192F-4911-ACD6-013685CB1D81}" ref="E1" dT="2024-06-09T13:30:45" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{E99D6053-9A0C-473D-A35A-6C07C501CD5C}" ref="C5" dT="2024-06-14T02:48:45" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  <threadedComment id="{2FE81BD0-C4CF-4E2B-9F98-29D079FC1621}" ref="C6" dT="2024-06-14T02:49:20" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{21017B20-1DF5-4C00-AF3D-E4C04CC3F622}" ref="D1" dT="2024-05-10T08:11:19" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
+  <threadedComment id="{E5092FB5-9A77-4C7D-B4CD-94339F76FC79}" ref="C1" dT="2024-05-10T07:54:02" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{F2BC65CD-8DE9-4BDD-AB6B-C4CAB0A161C7}" ref="D1" dT="2024-05-10T08:11:19" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{124a00f1-75a3-4f2e-aa06-28d51b088fa2}" ref="D1" dT="2024-05-10T08:15:39" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{21017B20-1DF5-4C00-AF3D-E4C04CC3F622}">
+  <threadedComment id="{1c94c0d0-ace6-4418-ab86-749b1008bb96}" ref="D1" dT="2024-05-10T08:15:39" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{F2BC65CD-8DE9-4BDD-AB6B-C4CAB0A161C7}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{E71E4B46-876C-4E4E-B277-36428D2D472A}" ref="C1" dT="2024-05-10T07:54:02" personId="{B6C2B9F8-4541-413B-A4E3-EFBE9A710AFB}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -903,62 +903,62 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3" t="str">
+      <c r="H4" s="3"/>
+      <c r="I4" s="4" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1328,30 +1328,30 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1775,49 +1775,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1853,7 +1853,7 @@
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -1862,7 +1862,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -1900,7 +1900,7 @@
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -1909,13 +1909,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -1955,13 +1955,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2003,7 +2003,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2028,7 +2028,7 @@
       <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2037,7 +2037,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2138,6 +2138,9 @@
       <c r="E2" s="1" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
+      <c r="F2" s="2" t="str">
+        <v>0,0,0</v>
+      </c>
       <c r="G2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
@@ -2158,6 +2161,9 @@
       <c r="E3" s="1" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
+      <c r="F3" s="2" t="str">
+        <v>0,0,0</v>
+      </c>
       <c r="G3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
@@ -2246,6 +2252,9 @@
       </c>
       <c r="E7" s="1" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <v>0,0,0</v>
       </c>
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>

--- a/budding_world/excel/budding_world.xlsx
+++ b/budding_world/excel/budding_world.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B805BC4E-E4F0-422F-B08A-442176055234}</author>
-    <author>tc={FF6E24B7-7C66-4EFC-A2C5-F05E36C190BF}</author>
-    <author>tc={3C0B8EAE-D90E-4BEB-BF52-149D3ABDCF72}</author>
-    <author>tc={98D40D29-4732-4530-8D5E-7C7B249F33AE}</author>
-    <author>tc={A713A927-6E74-4551-9890-1F228C2CDDC7}</author>
-    <author>tc={13011700-8E0A-4DC4-8198-C3D8C995D4CC}</author>
+    <author>tc={388F47B6-EAF4-4C69-8ED1-65FC2B98DBC4}</author>
+    <author>tc={8EA818E2-AF72-476F-996F-D8E4DE0DCEFC}</author>
+    <author>tc={F0165D76-27DA-4346-AA92-DD8C0F6DC244}</author>
+    <author>tc={AAE6ADC2-26C0-4213-8438-DB1DAAA05ABC}</author>
+    <author>tc={CC3CDA0A-6C7B-4FEC-81D5-38CE8BF9F4E6}</author>
+    <author>tc={6D39F611-2CB4-4580-81FF-9FAF051FEB5E}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{B805BC4E-E4F0-422F-B08A-442176055234}">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{388F47B6-EAF4-4C69-8ED1-65FC2B98DBC4}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{8EA818E2-AF72-476F-996F-D8E4DE0DCEFC}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{F0165D76-27DA-4346-AA92-DD8C0F6DC244}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{AAE6ADC2-26C0-4213-8438-DB1DAAA05ABC}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="4" shapeId="0" xr:uid="{CC3CDA0A-6C7B-4FEC-81D5-38CE8BF9F4E6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{FF6E24B7-7C66-4EFC-A2C5-F05E36C190BF}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{3C0B8EAE-D90E-4BEB-BF52-149D3ABDCF72}">
+    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{6D39F611-2CB4-4580-81FF-9FAF051FEB5E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="3" shapeId="0" xr:uid="{98D40D29-4732-4530-8D5E-7C7B249F33AE}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="4" shapeId="0" xr:uid="{A713A927-6E74-4551-9890-1F228C2CDDC7}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="5" shapeId="0" xr:uid="{13011700-8E0A-4DC4-8198-C3D8C995D4CC}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3920B7A9-FA24-41ED-B698-5C1EFF2C930F}</author>
+    <author>tc={C4114A7F-4AFA-4F02-8E65-8388DC0B40ED}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3920B7A9-FA24-41ED-B698-5C1EFF2C930F}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C4114A7F-4AFA-4F02-8E65-8388DC0B40ED}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,24 +93,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BE62629C-0613-49E0-8C30-D51F4822090C}</author>
-    <author>tc={BFFABBA7-192F-4911-ACD6-013685CB1D81}</author>
-    <author>tc={2FE81BD0-C4CF-4E2B-9F98-29D079FC1621}</author>
+    <author>tc={BA71D362-84AA-4916-9893-159CCF7BA593}</author>
+    <author>tc={903FB57C-1CC0-4800-8DCE-7D261ED51779}</author>
+    <author>tc={FE4D0498-0640-44B7-A38D-5EDE79E2F86A}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{BE62629C-0613-49E0-8C30-D51F4822090C}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{BA71D362-84AA-4916-9893-159CCF7BA593}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{BFFABBA7-192F-4911-ACD6-013685CB1D81}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{903FB57C-1CC0-4800-8DCE-7D261ED51779}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{2FE81BD0-C4CF-4E2B-9F98-29D079FC1621}">
+    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{FE4D0498-0640-44B7-A38D-5EDE79E2F86A}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
   </commentList>
@@ -120,22 +120,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E5092FB5-9A77-4C7D-B4CD-94339F76FC79}</author>
-    <author>tc={F2BC65CD-8DE9-4BDD-AB6B-C4CAB0A161C7}</author>
+    <author>tc={8048FC24-B3F9-4A02-A7E6-10D6D8B3DA20}</author>
+    <author>tc={6AFE5F82-AE33-46AE-A8A5-55DC99D507FD}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E5092FB5-9A77-4C7D-B4CD-94339F76FC79}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{F2BC65CD-8DE9-4BDD-AB6B-C4CAB0A161C7}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8048FC24-B3F9-4A02-A7E6-10D6D8B3DA20}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{6AFE5F82-AE33-46AE-A8A5-55DC99D507FD}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -348,8 +348,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{1EADEB8F-88D6-4E6C-B37D-09DC2D52532A}" userId="S::::7fa3b6bd-d7f5-4c45-ba27-0c30e4dd86f6" providerId="AD"/>
-  <person displayName="杨行" id="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" userId="S::::f290f61b-25bf-45bf-a71e-b2a07bb6b92e" providerId="AD"/>
+  <person displayName="杨行" id="{1764800F-68AA-445F-B823-0AD0918A56F3}" userId="S::::085fb0cc-b523-4531-9f2a-f2ee18d2c623" providerId="AD"/>
+  <person displayName="侯清辰" id="{19955D68-60E4-4E78-8BF9-292F376DC5E7}" userId="S::::a2736cbc-ea62-4c92-917d-be50eb865120" providerId="AD"/>
 </personList>
 </file>
 
@@ -650,30 +650,30 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B805BC4E-E4F0-422F-B08A-442176055234}" ref="J1" dT="2024-05-31T03:31:01" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
+  <threadedComment id="{388F47B6-EAF4-4C69-8ED1-65FC2B98DBC4}" ref="G9" dT="2024-06-14T02:51:06" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{8EA818E2-AF72-476F-996F-D8E4DE0DCEFC}" ref="G6" dT="2024-06-14T02:50:34" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{F0165D76-27DA-4346-AA92-DD8C0F6DC244}" ref="I1" dT="2024-05-10T07:08:22" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{AAE6ADC2-26C0-4213-8438-DB1DAAA05ABC}" ref="C2" dT="2024-06-14T02:49:51" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{CC3CDA0A-6C7B-4FEC-81D5-38CE8BF9F4E6}" ref="J1" dT="2024-05-31T03:31:01" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{FF6E24B7-7C66-4EFC-A2C5-F05E36C190BF}" ref="C2" dT="2024-06-14T02:49:51" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{3C0B8EAE-D90E-4BEB-BF52-149D3ABDCF72}" ref="A4" dT="2024-05-28T04:59:59" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
+  <threadedComment id="{6D39F611-2CB4-4580-81FF-9FAF051FEB5E}" ref="A4" dT="2024-05-28T04:59:59" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{98D40D29-4732-4530-8D5E-7C7B249F33AE}" ref="I1" dT="2024-05-10T07:08:22" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{A713A927-6E74-4551-9890-1F228C2CDDC7}" ref="G6" dT="2024-06-14T02:50:34" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{13011700-8E0A-4DC4-8198-C3D8C995D4CC}" ref="G9" dT="2024-06-14T02:51:06" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{3920B7A9-FA24-41ED-B698-5C1EFF2C930F}" ref="D1" dT="2024-06-09T13:30:31" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
+  <threadedComment id="{C4114A7F-4AFA-4F02-8E65-8388DC0B40ED}" ref="D1" dT="2024-06-09T13:30:31" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -681,32 +681,32 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{BE62629C-0613-49E0-8C30-D51F4822090C}" ref="C5" dT="2024-06-14T02:48:45" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  <threadedComment id="{BA71D362-84AA-4916-9893-159CCF7BA593}" ref="C6" dT="2024-06-14T02:49:20" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{BFFABBA7-192F-4911-ACD6-013685CB1D81}" ref="E1" dT="2024-06-09T13:30:45" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
+  <threadedComment id="{903FB57C-1CC0-4800-8DCE-7D261ED51779}" ref="E1" dT="2024-06-09T13:30:45" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{2FE81BD0-C4CF-4E2B-9F98-29D079FC1621}" ref="C6" dT="2024-06-14T02:49:20" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  <threadedComment id="{FE4D0498-0640-44B7-A38D-5EDE79E2F86A}" ref="C5" dT="2024-06-14T02:48:45" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E5092FB5-9A77-4C7D-B4CD-94339F76FC79}" ref="C1" dT="2024-05-10T07:54:02" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{F2BC65CD-8DE9-4BDD-AB6B-C4CAB0A161C7}" ref="D1" dT="2024-05-10T08:11:19" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{}">
+  <threadedComment id="{8048FC24-B3F9-4A02-A7E6-10D6D8B3DA20}" ref="D1" dT="2024-05-10T08:11:19" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{1c94c0d0-ace6-4418-ab86-749b1008bb96}" ref="D1" dT="2024-05-10T08:15:39" personId="{72CA89B6-1A97-41B3-BC7B-C98963A890EF}" parentId="{F2BC65CD-8DE9-4BDD-AB6B-C4CAB0A161C7}">
+  <threadedComment id="{7f3edc9e-a848-4957-a829-013270e4187d}" ref="D1" dT="2024-05-10T08:15:39" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{8048FC24-B3F9-4A02-A7E6-10D6D8B3DA20}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{6AFE5F82-AE33-46AE-A8A5-55DC99D507FD}" ref="C1" dT="2024-05-10T07:54:02" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1242,7 +1242,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="49"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="115"/>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="str">
-        <v>不死者印记;破旧的衣服;腐朽的匕首</v>
+        <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
       <c r="G4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。

--- a/budding_world/excel/budding_world.xlsx
+++ b/budding_world/excel/budding_world.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={388F47B6-EAF4-4C69-8ED1-65FC2B98DBC4}</author>
-    <author>tc={8EA818E2-AF72-476F-996F-D8E4DE0DCEFC}</author>
-    <author>tc={F0165D76-27DA-4346-AA92-DD8C0F6DC244}</author>
-    <author>tc={AAE6ADC2-26C0-4213-8438-DB1DAAA05ABC}</author>
-    <author>tc={CC3CDA0A-6C7B-4FEC-81D5-38CE8BF9F4E6}</author>
-    <author>tc={6D39F611-2CB4-4580-81FF-9FAF051FEB5E}</author>
+    <author>tc={AFEE8AE1-33E1-4E2F-AA5E-56C6D9C111B8}</author>
+    <author>tc={A3DF1291-48E5-4CBE-87A7-9073532CB0E4}</author>
+    <author>tc={661790BC-23AC-4CFD-8D1E-42995973C180}</author>
+    <author>tc={E33785F5-0438-4132-8850-D446F9E45A1C}</author>
+    <author>tc={C1EA76E1-6D71-4A0F-9DE5-AA5871F5965F}</author>
+    <author>tc={65C56239-6786-4DC5-B2D2-AAB27364E08B}</author>
   </authors>
   <commentList>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{388F47B6-EAF4-4C69-8ED1-65FC2B98DBC4}">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{AFEE8AE1-33E1-4E2F-AA5E-56C6D9C111B8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{8EA818E2-AF72-476F-996F-D8E4DE0DCEFC}">
+    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{A3DF1291-48E5-4CBE-87A7-9073532CB0E4}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{F0165D76-27DA-4346-AA92-DD8C0F6DC244}">
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{661790BC-23AC-4CFD-8D1E-42995973C180}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{AAE6ADC2-26C0-4213-8438-DB1DAAA05ABC}">
+    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{E33785F5-0438-4132-8850-D446F9E45A1C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="4" shapeId="0" xr:uid="{CC3CDA0A-6C7B-4FEC-81D5-38CE8BF9F4E6}">
+    <comment ref="J1" authorId="4" shapeId="0" xr:uid="{C1EA76E1-6D71-4A0F-9DE5-AA5871F5965F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{6D39F611-2CB4-4580-81FF-9FAF051FEB5E}">
+    <comment ref="I1" authorId="5" shapeId="0" xr:uid="{65C56239-6786-4DC5-B2D2-AAB27364E08B}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C4114A7F-4AFA-4F02-8E65-8388DC0B40ED}</author>
+    <author>tc={DA340155-89F2-441D-89DD-F99D121B0B5F}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C4114A7F-4AFA-4F02-8E65-8388DC0B40ED}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DA340155-89F2-441D-89DD-F99D121B0B5F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,24 +93,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BA71D362-84AA-4916-9893-159CCF7BA593}</author>
-    <author>tc={903FB57C-1CC0-4800-8DCE-7D261ED51779}</author>
-    <author>tc={FE4D0498-0640-44B7-A38D-5EDE79E2F86A}</author>
+    <author>tc={9229A680-5AE7-426A-8C11-547AE3310091}</author>
+    <author>tc={4EEE85E9-2C9A-43A4-B71D-39D89B848FD7}</author>
+    <author>tc={870C40E4-E258-43A5-B8D0-F5ADAA8FFF4A}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{BA71D362-84AA-4916-9893-159CCF7BA593}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{9229A680-5AE7-426A-8C11-547AE3310091}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{903FB57C-1CC0-4800-8DCE-7D261ED51779}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{4EEE85E9-2C9A-43A4-B71D-39D89B848FD7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{FE4D0498-0640-44B7-A38D-5EDE79E2F86A}">
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{870C40E4-E258-43A5-B8D0-F5ADAA8FFF4A}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
   </commentList>
@@ -120,22 +120,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={8048FC24-B3F9-4A02-A7E6-10D6D8B3DA20}</author>
-    <author>tc={6AFE5F82-AE33-46AE-A8A5-55DC99D507FD}</author>
+    <author>tc={A5F6312D-156A-4D59-8ECA-9ECB6F932673}</author>
+    <author>tc={558C30EF-E682-4968-B50F-893B9E2C8A38}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8048FC24-B3F9-4A02-A7E6-10D6D8B3DA20}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A5F6312D-156A-4D59-8ECA-9ECB6F932673}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{558C30EF-E682-4968-B50F-893B9E2C8A38}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{6AFE5F82-AE33-46AE-A8A5-55DC99D507FD}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -197,14 +197,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -348,8 +348,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{1764800F-68AA-445F-B823-0AD0918A56F3}" userId="S::::085fb0cc-b523-4531-9f2a-f2ee18d2c623" providerId="AD"/>
-  <person displayName="侯清辰" id="{19955D68-60E4-4E78-8BF9-292F376DC5E7}" userId="S::::a2736cbc-ea62-4c92-917d-be50eb865120" providerId="AD"/>
+  <person displayName="侯清辰" id="{910D4BA4-7ED0-4F88-8DBC-D403C350ED80}" userId="S::::fba57d04-22e1-4858-a560-35405060d4e4" providerId="AD"/>
+  <person displayName="杨行" id="{98904DF5-4751-4011-841B-BC456B3136EF}" userId="S::::16ca1081-a174-4207-b008-a1ff7538033e" providerId="AD"/>
 </personList>
 </file>
 
@@ -650,30 +650,30 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{388F47B6-EAF4-4C69-8ED1-65FC2B98DBC4}" ref="G9" dT="2024-06-14T02:51:06" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+  <threadedComment id="{AFEE8AE1-33E1-4E2F-AA5E-56C6D9C111B8}" ref="G9" dT="2024-06-14T02:51:06" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{8EA818E2-AF72-476F-996F-D8E4DE0DCEFC}" ref="G6" dT="2024-06-14T02:50:34" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+  <threadedComment id="{A3DF1291-48E5-4CBE-87A7-9073532CB0E4}" ref="G6" dT="2024-06-14T02:50:34" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{F0165D76-27DA-4346-AA92-DD8C0F6DC244}" ref="I1" dT="2024-05-10T07:08:22" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  <threadedComment id="{661790BC-23AC-4CFD-8D1E-42995973C180}" ref="A4" dT="2024-05-28T04:59:59" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{AAE6ADC2-26C0-4213-8438-DB1DAAA05ABC}" ref="C2" dT="2024-06-14T02:49:51" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+  <threadedComment id="{E33785F5-0438-4132-8850-D446F9E45A1C}" ref="C2" dT="2024-06-14T02:49:51" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{CC3CDA0A-6C7B-4FEC-81D5-38CE8BF9F4E6}" ref="J1" dT="2024-05-31T03:31:01" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+  <threadedComment id="{C1EA76E1-6D71-4A0F-9DE5-AA5871F5965F}" ref="J1" dT="2024-05-31T03:31:01" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{6D39F611-2CB4-4580-81FF-9FAF051FEB5E}" ref="A4" dT="2024-05-28T04:59:59" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  <threadedComment id="{65C56239-6786-4DC5-B2D2-AAB27364E08B}" ref="I1" dT="2024-05-10T07:08:22" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{C4114A7F-4AFA-4F02-8E65-8388DC0B40ED}" ref="D1" dT="2024-06-09T13:30:31" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+  <threadedComment id="{DA340155-89F2-441D-89DD-F99D121B0B5F}" ref="D1" dT="2024-06-09T13:30:31" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -681,32 +681,32 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{BA71D362-84AA-4916-9893-159CCF7BA593}" ref="C6" dT="2024-06-14T02:49:20" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  <threadedComment id="{9229A680-5AE7-426A-8C11-547AE3310091}" ref="C5" dT="2024-06-14T02:48:45" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{903FB57C-1CC0-4800-8DCE-7D261ED51779}" ref="E1" dT="2024-06-09T13:30:45" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+  <threadedComment id="{4EEE85E9-2C9A-43A4-B71D-39D89B848FD7}" ref="E1" dT="2024-06-09T13:30:45" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{FE4D0498-0640-44B7-A38D-5EDE79E2F86A}" ref="C5" dT="2024-06-14T02:48:45" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  <threadedComment id="{870C40E4-E258-43A5-B8D0-F5ADAA8FFF4A}" ref="C6" dT="2024-06-14T02:49:20" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{8048FC24-B3F9-4A02-A7E6-10D6D8B3DA20}" ref="D1" dT="2024-05-10T08:11:19" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
+  <threadedComment id="{A5F6312D-156A-4D59-8ECA-9ECB6F932673}" ref="C1" dT="2024-05-10T07:54:02" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{558C30EF-E682-4968-B50F-893B9E2C8A38}" ref="D1" dT="2024-05-10T08:11:19" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{7f3edc9e-a848-4957-a829-013270e4187d}" ref="D1" dT="2024-05-10T08:15:39" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{8048FC24-B3F9-4A02-A7E6-10D6D8B3DA20}">
+  <threadedComment id="{20dd7f52-1ca2-4fcf-b6c2-cbc74b5d1ac5}" ref="D1" dT="2024-05-10T08:15:39" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{558C30EF-E682-4968-B50F-893B9E2C8A38}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{6AFE5F82-AE33-46AE-A8A5-55DC99D507FD}" ref="C1" dT="2024-05-10T07:54:02" personId="{1764800F-68AA-445F-B823-0AD0918A56F3}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -745,30 +745,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -806,7 +806,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="115"/>
@@ -824,63 +824,63 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
 ## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
 ## 目前场景有6个。
@@ -894,13 +894,13 @@
 - BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
 - 正常就是对话类型游戏。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="4" t="str">
@@ -961,64 +961,64 @@
       <c r="R4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
-        <v>不死者印记;破旧的衣服;腐朽的匕首</v>
-      </c>
-      <c r="G5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
+        <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
+      </c>
+      <c r="G5" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1026,44 +1026,44 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1" t="str">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="2" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="G9" s="1" t="str">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="G9" s="2" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1071,146 +1071,146 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="2" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="str">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J10" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="L10" s="2" t="str">
+      <c r="L10" s="1" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="N10" s="2" t="str">
+      <c r="N10" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="str">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="G11" s="2" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="J11" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="str">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="str">
-        <v>炉钩</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="str">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="str">
+        <v>炉钩#55</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="J13" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="str">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="H14" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="1" t="str">
+      <c r="J14" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="2" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="str">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="2" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="J15" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1260,72 +1260,72 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="4" t="str">
@@ -1354,51 +1354,51 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N5" s="2" t="str">
+      <c r="N5" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1410,49 +1410,49 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="J6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="J7" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="str">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="M7" s="2" t="str">
+      <c r="M7" s="1" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="N7" s="6" t="str">
@@ -1507,184 +1507,184 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8100</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>8101</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>8102</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>8103</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>8104</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>8105</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1741,34 +1741,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>body</v>
       </c>
     </row>
@@ -1797,13 +1797,13 @@
       <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J4" s="3" t="str">
@@ -1820,13 +1820,13 @@
       <c r="S4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -1846,7 +1846,7 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
@@ -1856,30 +1856,30 @@
       <c r="E5" s="4">
         <v>8201</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -1894,7 +1894,7 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
@@ -1903,16 +1903,16 @@
       <c r="E6" s="4">
         <v>8202</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J6" s="4" t="str">
@@ -1920,13 +1920,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -1941,7 +1941,7 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
@@ -1949,16 +1949,16 @@
       <c r="E7" s="4">
         <v>8203</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J7" s="3" t="str">
@@ -1966,13 +1966,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -1989,7 +1989,7 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
@@ -1997,53 +1997,53 @@
       <c r="E8" s="4">
         <v>8204</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="2" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>- 我知道了。</v>
       </c>
       <c r="E9" s="4">
         <v>8205</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="2" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
@@ -2100,209 +2100,209 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>0,10000,0</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐。</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>0,1,0</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="2" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2343,54 +2343,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8300</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/budding_world/excel/budding_world.xlsx
+++ b/budding_world/excel/budding_world.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={AFEE8AE1-33E1-4E2F-AA5E-56C6D9C111B8}</author>
-    <author>tc={A3DF1291-48E5-4CBE-87A7-9073532CB0E4}</author>
-    <author>tc={661790BC-23AC-4CFD-8D1E-42995973C180}</author>
-    <author>tc={E33785F5-0438-4132-8850-D446F9E45A1C}</author>
-    <author>tc={C1EA76E1-6D71-4A0F-9DE5-AA5871F5965F}</author>
-    <author>tc={65C56239-6786-4DC5-B2D2-AAB27364E08B}</author>
+    <author>tc={9CA127BA-6835-433F-A193-FB126AD8C305}</author>
+    <author>tc={E8300FB6-9E34-4A45-BDEA-925C30F6A5C5}</author>
+    <author>tc={55375F42-E653-45DA-9105-DE1ED38CD5F4}</author>
+    <author>tc={D5B37C4F-A189-4238-ABBE-B28EE6E03E8C}</author>
+    <author>tc={CCAE68D9-9850-4D8C-9B4E-A6037D57CDB7}</author>
+    <author>tc={4E0A1247-3686-4022-BEFE-6C2BC8995069}</author>
   </authors>
   <commentList>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{AFEE8AE1-33E1-4E2F-AA5E-56C6D9C111B8}">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{9CA127BA-6835-433F-A193-FB126AD8C305}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{A3DF1291-48E5-4CBE-87A7-9073532CB0E4}">
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{E8300FB6-9E34-4A45-BDEA-925C30F6A5C5}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{661790BC-23AC-4CFD-8D1E-42995973C180}">
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{55375F42-E653-45DA-9105-DE1ED38CD5F4}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{D5B37C4F-A189-4238-ABBE-B28EE6E03E8C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{E33785F5-0438-4132-8850-D446F9E45A1C}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="4" shapeId="0" xr:uid="{C1EA76E1-6D71-4A0F-9DE5-AA5871F5965F}">
+    <comment ref="J1" authorId="4" shapeId="0" xr:uid="{CCAE68D9-9850-4D8C-9B4E-A6037D57CDB7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="5" shapeId="0" xr:uid="{65C56239-6786-4DC5-B2D2-AAB27364E08B}">
+    <comment ref="G6" authorId="5" shapeId="0" xr:uid="{4E0A1247-3686-4022-BEFE-6C2BC8995069}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DA340155-89F2-441D-89DD-F99D121B0B5F}</author>
+    <author>tc={AD483A2C-3D95-4CA1-B80D-C5B50F913BE3}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DA340155-89F2-441D-89DD-F99D121B0B5F}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AD483A2C-3D95-4CA1-B80D-C5B50F913BE3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,22 +93,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9229A680-5AE7-426A-8C11-547AE3310091}</author>
-    <author>tc={4EEE85E9-2C9A-43A4-B71D-39D89B848FD7}</author>
-    <author>tc={870C40E4-E258-43A5-B8D0-F5ADAA8FFF4A}</author>
+    <author>tc={AFBADA11-425D-448C-A5DB-ED7D9EE38AFA}</author>
+    <author>tc={8086A481-7D9B-4452-A92D-A64D21A9F993}</author>
+    <author>tc={48706487-D9DA-471C-A1D6-BB32D750362A}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{9229A680-5AE7-426A-8C11-547AE3310091}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AFBADA11-425D-448C-A5DB-ED7D9EE38AFA}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{8086A481-7D9B-4452-A92D-A64D21A9F993}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{4EEE85E9-2C9A-43A4-B71D-39D89B848FD7}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{870C40E4-E258-43A5-B8D0-F5ADAA8FFF4A}">
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{48706487-D9DA-471C-A1D6-BB32D750362A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
@@ -120,16 +120,16 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A5F6312D-156A-4D59-8ECA-9ECB6F932673}</author>
-    <author>tc={558C30EF-E682-4968-B50F-893B9E2C8A38}</author>
+    <author>tc={B7D30CA1-A445-4D1D-870B-089B6972F082}</author>
+    <author>tc={7E70FA56-7420-4ECA-AAFB-5F621D79A10A}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A5F6312D-156A-4D59-8ECA-9ECB6F932673}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B7D30CA1-A445-4D1D-870B-089B6972F082}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{558C30EF-E682-4968-B50F-893B9E2C8A38}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{7E70FA56-7420-4ECA-AAFB-5F621D79A10A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -197,6 +197,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -212,13 +219,6 @@
     </font>
     <font>
       <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -318,13 +318,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -348,8 +348,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{910D4BA4-7ED0-4F88-8DBC-D403C350ED80}" userId="S::::fba57d04-22e1-4858-a560-35405060d4e4" providerId="AD"/>
-  <person displayName="杨行" id="{98904DF5-4751-4011-841B-BC456B3136EF}" userId="S::::16ca1081-a174-4207-b008-a1ff7538033e" providerId="AD"/>
+  <person displayName="杨行" id="{5195B398-DC88-40DC-94D5-02CFD436A85D}" userId="S::::d6ea5406-183c-4a15-a5b4-5b5b63af3925" providerId="AD"/>
+  <person displayName="侯清辰" id="{E983AD55-97EC-4E11-8FE6-541BE1404A5C}" userId="S::::5c0a03d1-aad5-4429-9771-b40863640ba1" providerId="AD"/>
 </personList>
 </file>
 
@@ -650,30 +650,30 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{AFEE8AE1-33E1-4E2F-AA5E-56C6D9C111B8}" ref="G9" dT="2024-06-14T02:51:06" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
+  <threadedComment id="{9CA127BA-6835-433F-A193-FB126AD8C305}" ref="G9" dT="2024-06-14T02:51:06" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{A3DF1291-48E5-4CBE-87A7-9073532CB0E4}" ref="G6" dT="2024-06-14T02:50:34" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  <threadedComment id="{E8300FB6-9E34-4A45-BDEA-925C30F6A5C5}" ref="C2" dT="2024-06-14T02:49:51" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{661790BC-23AC-4CFD-8D1E-42995973C180}" ref="A4" dT="2024-05-28T04:59:59" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
+  <threadedComment id="{55375F42-E653-45DA-9105-DE1ED38CD5F4}" ref="I1" dT="2024-05-10T07:08:22" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{D5B37C4F-A189-4238-ABBE-B28EE6E03E8C}" ref="A4" dT="2024-05-28T04:59:59" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{E33785F5-0438-4132-8850-D446F9E45A1C}" ref="C2" dT="2024-06-14T02:49:51" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{C1EA76E1-6D71-4A0F-9DE5-AA5871F5965F}" ref="J1" dT="2024-05-31T03:31:01" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
+  <threadedComment id="{CCAE68D9-9850-4D8C-9B4E-A6037D57CDB7}" ref="J1" dT="2024-05-31T03:31:01" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{65C56239-6786-4DC5-B2D2-AAB27364E08B}" ref="I1" dT="2024-05-10T07:08:22" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  <threadedComment id="{4E0A1247-3686-4022-BEFE-6C2BC8995069}" ref="G6" dT="2024-06-14T02:50:34" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{DA340155-89F2-441D-89DD-F99D121B0B5F}" ref="D1" dT="2024-06-09T13:30:31" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
+  <threadedComment id="{AD483A2C-3D95-4CA1-B80D-C5B50F913BE3}" ref="D1" dT="2024-06-09T13:30:31" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -681,13 +681,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{9229A680-5AE7-426A-8C11-547AE3310091}" ref="C5" dT="2024-06-14T02:48:45" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
+  <threadedComment id="{AFBADA11-425D-448C-A5DB-ED7D9EE38AFA}" ref="E1" dT="2024-06-09T13:30:45" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
+    <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{8086A481-7D9B-4452-A92D-A64D21A9F993}" ref="C5" dT="2024-06-14T02:48:45" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{4EEE85E9-2C9A-43A4-B71D-39D89B848FD7}" ref="E1" dT="2024-06-09T13:30:45" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
-    <text>@宾晓华 这里</text>
-  </threadedComment>
-  <threadedComment id="{870C40E4-E258-43A5-B8D0-F5ADAA8FFF4A}" ref="C6" dT="2024-06-14T02:49:20" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
+  <threadedComment id="{48706487-D9DA-471C-A1D6-BB32D750362A}" ref="C6" dT="2024-06-14T02:49:20" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
@@ -695,17 +695,17 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{A5F6312D-156A-4D59-8ECA-9ECB6F932673}" ref="C1" dT="2024-05-10T07:54:02" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
+  <threadedComment id="{B7D30CA1-A445-4D1D-870B-089B6972F082}" ref="C1" dT="2024-05-10T07:54:02" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{558C30EF-E682-4968-B50F-893B9E2C8A38}" ref="D1" dT="2024-05-10T08:11:19" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{}">
+  <threadedComment id="{7E70FA56-7420-4ECA-AAFB-5F621D79A10A}" ref="D1" dT="2024-05-10T08:11:19" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{20dd7f52-1ca2-4fcf-b6c2-cbc74b5d1ac5}" ref="D1" dT="2024-05-10T08:15:39" personId="{98904DF5-4751-4011-841B-BC456B3136EF}" parentId="{558C30EF-E682-4968-B50F-893B9E2C8A38}">
+  <threadedComment id="{7af24261-43ea-4126-8d4f-2a64d3516d06}" ref="D1" dT="2024-05-10T08:15:39" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{7E70FA56-7420-4ECA-AAFB-5F621D79A10A}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
 </ThreadedComments>
@@ -745,30 +745,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -824,63 +824,63 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
 ## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
 ## 目前场景有6个。
@@ -894,131 +894,131 @@
 - BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
 - 正常就是对话类型游戏。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5" t="str">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="str">
+      <c r="H4" s="4"/>
+      <c r="I4" s="5" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="J6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1026,44 +1026,44 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="J7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="G8" s="2" t="str">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="G9" s="2" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1071,146 +1071,146 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="2" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="J10" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="L10" s="1" t="str">
+      <c r="L10" s="2" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="N10" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="1" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="J11" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="J12" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="str">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="J13" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="H14" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="2" t="str">
+      <c r="J14" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="1" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="str">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="1" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="J15" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1260,145 +1260,145 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="J4" s="1" t="str">
+      <c r="J4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="N5" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1410,49 +1410,49 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="str">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="M7" s="1" t="str">
+      <c r="M7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="N7" s="6" t="str">
@@ -1507,184 +1507,184 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8100</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>8101</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>8102</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>8103</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>8104</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>8105</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1741,92 +1741,92 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>body</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="5" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -1846,40 +1846,40 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>8201</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -1894,39 +1894,39 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>8202</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="5" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -1941,38 +1941,38 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>8203</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -1989,61 +1989,61 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>8204</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>8205</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
@@ -2100,209 +2100,209 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>0,10000,0</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐。</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>0,1,0</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="1" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2343,54 +2343,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8300</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/budding_world/excel/budding_world.xlsx
+++ b/budding_world/excel/budding_world.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9CA127BA-6835-433F-A193-FB126AD8C305}</author>
-    <author>tc={E8300FB6-9E34-4A45-BDEA-925C30F6A5C5}</author>
-    <author>tc={55375F42-E653-45DA-9105-DE1ED38CD5F4}</author>
-    <author>tc={D5B37C4F-A189-4238-ABBE-B28EE6E03E8C}</author>
-    <author>tc={CCAE68D9-9850-4D8C-9B4E-A6037D57CDB7}</author>
-    <author>tc={4E0A1247-3686-4022-BEFE-6C2BC8995069}</author>
+    <author>tc={24C78922-2352-47C7-AA3E-B93E41DB1BBC}</author>
+    <author>tc={20AD04E6-2989-431A-A86A-E14BBA7F3A36}</author>
+    <author>tc={5030B63F-0A7D-43BC-BA5F-1E1BAF3B56A8}</author>
+    <author>tc={D9ED48CA-36A2-4C73-9DB5-BF383DEC59F8}</author>
+    <author>tc={A4BBD722-408A-4CBA-A098-037A03ECBEFA}</author>
+    <author>tc={82EEC556-5D1B-4E0D-8BB8-601584F8F53E}</author>
   </authors>
   <commentList>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{9CA127BA-6835-433F-A193-FB126AD8C305}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{24C78922-2352-47C7-AA3E-B93E41DB1BBC}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{20AD04E6-2989-431A-A86A-E14BBA7F3A36}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{5030B63F-0A7D-43BC-BA5F-1E1BAF3B56A8}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="3" shapeId="0" xr:uid="{D9ED48CA-36A2-4C73-9DB5-BF383DEC59F8}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="4" shapeId="0" xr:uid="{A4BBD722-408A-4CBA-A098-037A03ECBEFA}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{E8300FB6-9E34-4A45-BDEA-925C30F6A5C5}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{55375F42-E653-45DA-9105-DE1ED38CD5F4}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{D5B37C4F-A189-4238-ABBE-B28EE6E03E8C}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="4" shapeId="0" xr:uid="{CCAE68D9-9850-4D8C-9B4E-A6037D57CDB7}">
+    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{82EEC556-5D1B-4E0D-8BB8-601584F8F53E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="5" shapeId="0" xr:uid="{4E0A1247-3686-4022-BEFE-6C2BC8995069}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={AD483A2C-3D95-4CA1-B80D-C5B50F913BE3}</author>
+    <author>tc={203E843A-62FF-4867-9A75-42FB6BC45AD4}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AD483A2C-3D95-4CA1-B80D-C5B50F913BE3}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{203E843A-62FF-4867-9A75-42FB6BC45AD4}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,24 +93,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={AFBADA11-425D-448C-A5DB-ED7D9EE38AFA}</author>
-    <author>tc={8086A481-7D9B-4452-A92D-A64D21A9F993}</author>
-    <author>tc={48706487-D9DA-471C-A1D6-BB32D750362A}</author>
+    <author>tc={96D82714-ABB5-4178-97F4-185E03C09198}</author>
+    <author>tc={8C2DDA2D-B68F-4A83-BA54-12EBBAB28DC4}</author>
+    <author>tc={F4CCDA7E-06B5-41E4-8301-65C60021ECE8}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AFBADA11-425D-448C-A5DB-ED7D9EE38AFA}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{96D82714-ABB5-4178-97F4-185E03C09198}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{8086A481-7D9B-4452-A92D-A64D21A9F993}">
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{8C2DDA2D-B68F-4A83-BA54-12EBBAB28DC4}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{48706487-D9DA-471C-A1D6-BB32D750362A}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{F4CCDA7E-06B5-41E4-8301-65C60021ECE8}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
   </commentList>
@@ -120,16 +120,16 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B7D30CA1-A445-4D1D-870B-089B6972F082}</author>
-    <author>tc={7E70FA56-7420-4ECA-AAFB-5F621D79A10A}</author>
+    <author>tc={5436E06E-F944-4E39-8148-838170CA8689}</author>
+    <author>tc={9A399938-EA3F-46B9-8C18-E85697ED88EB}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B7D30CA1-A445-4D1D-870B-089B6972F082}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5436E06E-F944-4E39-8148-838170CA8689}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{7E70FA56-7420-4ECA-AAFB-5F621D79A10A}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{9A399938-EA3F-46B9-8C18-E85697ED88EB}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -197,6 +197,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -212,13 +219,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -318,13 +318,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -348,8 +348,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{5195B398-DC88-40DC-94D5-02CFD436A85D}" userId="S::::d6ea5406-183c-4a15-a5b4-5b5b63af3925" providerId="AD"/>
-  <person displayName="侯清辰" id="{E983AD55-97EC-4E11-8FE6-541BE1404A5C}" userId="S::::5c0a03d1-aad5-4429-9771-b40863640ba1" providerId="AD"/>
+  <person displayName="侯清辰" id="{33002B4A-7642-4332-B1F4-206A6B9EA94F}" userId="S::::755a5d3e-6843-40ff-952d-abb97072ccfa" providerId="AD"/>
+  <person displayName="杨行" id="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" userId="S::::1cf80bef-2e4b-4fd7-9cb9-513c9d1f700c" providerId="AD"/>
 </personList>
 </file>
 
@@ -650,30 +650,30 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{9CA127BA-6835-433F-A193-FB126AD8C305}" ref="G9" dT="2024-06-14T02:51:06" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
+  <threadedComment id="{24C78922-2352-47C7-AA3E-B93E41DB1BBC}" ref="C2" dT="2024-06-14T02:49:51" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{20AD04E6-2989-431A-A86A-E14BBA7F3A36}" ref="A4" dT="2024-05-28T04:59:59" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{5030B63F-0A7D-43BC-BA5F-1E1BAF3B56A8}" ref="I1" dT="2024-05-10T07:08:22" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{D9ED48CA-36A2-4C73-9DB5-BF383DEC59F8}" ref="G6" dT="2024-06-14T02:50:34" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{A4BBD722-408A-4CBA-A098-037A03ECBEFA}" ref="G9" dT="2024-06-14T02:51:06" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{E8300FB6-9E34-4A45-BDEA-925C30F6A5C5}" ref="C2" dT="2024-06-14T02:49:51" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{55375F42-E653-45DA-9105-DE1ED38CD5F4}" ref="I1" dT="2024-05-10T07:08:22" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{D5B37C4F-A189-4238-ABBE-B28EE6E03E8C}" ref="A4" dT="2024-05-28T04:59:59" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{CCAE68D9-9850-4D8C-9B4E-A6037D57CDB7}" ref="J1" dT="2024-05-31T03:31:01" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
+  <threadedComment id="{82EEC556-5D1B-4E0D-8BB8-601584F8F53E}" ref="J1" dT="2024-05-31T03:31:01" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{4E0A1247-3686-4022-BEFE-6C2BC8995069}" ref="G6" dT="2024-06-14T02:50:34" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{AD483A2C-3D95-4CA1-B80D-C5B50F913BE3}" ref="D1" dT="2024-06-09T13:30:31" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
+  <threadedComment id="{203E843A-62FF-4867-9A75-42FB6BC45AD4}" ref="D1" dT="2024-06-09T13:30:31" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -681,31 +681,31 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{AFBADA11-425D-448C-A5DB-ED7D9EE38AFA}" ref="E1" dT="2024-06-09T13:30:45" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
-    <text>@宾晓华 这里</text>
+  <threadedComment id="{96D82714-ABB5-4178-97F4-185E03C09198}" ref="C6" dT="2024-06-14T02:49:20" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{8086A481-7D9B-4452-A92D-A64D21A9F993}" ref="C5" dT="2024-06-14T02:48:45" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
+  <threadedComment id="{8C2DDA2D-B68F-4A83-BA54-12EBBAB28DC4}" ref="C5" dT="2024-06-14T02:48:45" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{48706487-D9DA-471C-A1D6-BB32D750362A}" ref="C6" dT="2024-06-14T02:49:20" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  <threadedComment id="{F4CCDA7E-06B5-41E4-8301-65C60021ECE8}" ref="E1" dT="2024-06-09T13:30:45" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
+    <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B7D30CA1-A445-4D1D-870B-089B6972F082}" ref="C1" dT="2024-05-10T07:54:02" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
+  <threadedComment id="{5436E06E-F944-4E39-8148-838170CA8689}" ref="C1" dT="2024-05-10T07:54:02" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{7E70FA56-7420-4ECA-AAFB-5F621D79A10A}" ref="D1" dT="2024-05-10T08:11:19" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{}">
+  <threadedComment id="{9A399938-EA3F-46B9-8C18-E85697ED88EB}" ref="D1" dT="2024-05-10T08:11:19" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{7af24261-43ea-4126-8d4f-2a64d3516d06}" ref="D1" dT="2024-05-10T08:15:39" personId="{5195B398-DC88-40DC-94D5-02CFD436A85D}" parentId="{7E70FA56-7420-4ECA-AAFB-5F621D79A10A}">
+  <threadedComment id="{68312e17-ef90-47ab-8a0d-eb00d545507a}" ref="D1" dT="2024-05-10T08:15:39" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{9A399938-EA3F-46B9-8C18-E85697ED88EB}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
 </ThreadedComments>
@@ -745,30 +745,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -824,63 +824,63 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
 ## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
 ## 目前场景有6个。
@@ -894,131 +894,133 @@
 - BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
 - 正常就是对话类型游戏。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3" t="str">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="str">
+        <v>教廷秘使的装束</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5" t="str">
+      <c r="H4" s="3"/>
+      <c r="I4" s="4" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="str">
-        <v>断指钥匙</v>
-      </c>
-      <c r="G7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="str">
+        <v>守墓人的装束;断指钥匙</v>
+      </c>
+      <c r="G7" s="2" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1026,44 +1028,44 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1" t="str">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="2" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="G9" s="1" t="str">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="G9" s="2" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1071,146 +1073,146 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="2" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="str">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J10" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="L10" s="2" t="str">
+      <c r="L10" s="1" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="N10" s="2" t="str">
+      <c r="N10" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="str">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="G11" s="2" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="J11" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="str">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="str">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="str">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="J13" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="str">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="H14" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="1" t="str">
+      <c r="J14" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="2" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="str">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="2" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="J15" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1260,145 +1262,145 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N5" s="2" t="str">
+      <c r="N5" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1410,49 +1412,49 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="J6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="J7" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="str">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="M7" s="2" t="str">
+      <c r="M7" s="1" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="N7" s="6" t="str">
@@ -1507,184 +1509,184 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8100</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>8101</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>8102</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>8103</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>8104</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>8105</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1741,92 +1743,92 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>body</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -1846,40 +1848,40 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -1894,39 +1896,39 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -1941,38 +1943,38 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -1989,61 +1991,61 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="2" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="2" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
@@ -2100,209 +2102,209 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>0,10000,0</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐。</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>0,1,0</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="2" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2343,54 +2345,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8300</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/budding_world/excel/budding_world.xlsx
+++ b/budding_world/excel/budding_world.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={24C78922-2352-47C7-AA3E-B93E41DB1BBC}</author>
-    <author>tc={20AD04E6-2989-431A-A86A-E14BBA7F3A36}</author>
-    <author>tc={5030B63F-0A7D-43BC-BA5F-1E1BAF3B56A8}</author>
-    <author>tc={D9ED48CA-36A2-4C73-9DB5-BF383DEC59F8}</author>
-    <author>tc={A4BBD722-408A-4CBA-A098-037A03ECBEFA}</author>
-    <author>tc={82EEC556-5D1B-4E0D-8BB8-601584F8F53E}</author>
+    <author>tc={D1481B4B-23C1-4570-973A-E0064958ED95}</author>
+    <author>tc={09ACF1F5-A840-47BF-B75C-247AE9CD0532}</author>
+    <author>tc={A7F200C0-447F-4252-9DE7-D504CD380E95}</author>
+    <author>tc={04F9BD1A-F36A-40CD-B3D2-9480F496F620}</author>
+    <author>tc={177A1F41-4E29-40A1-8CE6-04D5C9E6FF36}</author>
+    <author>tc={FCF1BD49-ED7E-4E74-93DE-7126B2EAB737}</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{24C78922-2352-47C7-AA3E-B93E41DB1BBC}">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{D1481B4B-23C1-4570-973A-E0064958ED95}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{09ACF1F5-A840-47BF-B75C-247AE9CD0532}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="2" shapeId="0" xr:uid="{A7F200C0-447F-4252-9DE7-D504CD380E95}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{04F9BD1A-F36A-40CD-B3D2-9480F496F620}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{177A1F41-4E29-40A1-8CE6-04D5C9E6FF36}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{20AD04E6-2989-431A-A86A-E14BBA7F3A36}">
+    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{FCF1BD49-ED7E-4E74-93DE-7126B2EAB737}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{5030B63F-0A7D-43BC-BA5F-1E1BAF3B56A8}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="3" shapeId="0" xr:uid="{D9ED48CA-36A2-4C73-9DB5-BF383DEC59F8}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="4" shapeId="0" xr:uid="{A4BBD722-408A-4CBA-A098-037A03ECBEFA}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{82EEC556-5D1B-4E0D-8BB8-601584F8F53E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={203E843A-62FF-4867-9A75-42FB6BC45AD4}</author>
+    <author>tc={8452A783-B87B-446A-A8EF-BB2619EA56B9}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{203E843A-62FF-4867-9A75-42FB6BC45AD4}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8452A783-B87B-446A-A8EF-BB2619EA56B9}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,24 +93,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={96D82714-ABB5-4178-97F4-185E03C09198}</author>
-    <author>tc={8C2DDA2D-B68F-4A83-BA54-12EBBAB28DC4}</author>
-    <author>tc={F4CCDA7E-06B5-41E4-8301-65C60021ECE8}</author>
+    <author>tc={79DE55FA-2C46-49BA-BA4C-C216BE7B9473}</author>
+    <author>tc={844955A2-D213-469B-A0B2-B25DD5F7130D}</author>
+    <author>tc={41EBFE93-A12B-4E73-88FF-5275073D46BA}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{96D82714-ABB5-4178-97F4-185E03C09198}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{8C2DDA2D-B68F-4A83-BA54-12EBBAB28DC4}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{79DE55FA-2C46-49BA-BA4C-C216BE7B9473}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{F4CCDA7E-06B5-41E4-8301-65C60021ECE8}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{844955A2-D213-469B-A0B2-B25DD5F7130D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{41EBFE93-A12B-4E73-88FF-5275073D46BA}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
   </commentList>
@@ -120,22 +120,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5436E06E-F944-4E39-8148-838170CA8689}</author>
-    <author>tc={9A399938-EA3F-46B9-8C18-E85697ED88EB}</author>
+    <author>tc={A9B487C6-67A9-4737-8316-E5218D546251}</author>
+    <author>tc={80E8A191-EDAA-4C89-80DD-C80CB99814A6}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5436E06E-F944-4E39-8148-838170CA8689}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{9A399938-EA3F-46B9-8C18-E85697ED88EB}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A9B487C6-67A9-4737-8316-E5218D546251}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{80E8A191-EDAA-4C89-80DD-C80CB99814A6}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -197,14 +197,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -348,8 +348,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{33002B4A-7642-4332-B1F4-206A6B9EA94F}" userId="S::::755a5d3e-6843-40ff-952d-abb97072ccfa" providerId="AD"/>
-  <person displayName="杨行" id="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" userId="S::::1cf80bef-2e4b-4fd7-9cb9-513c9d1f700c" providerId="AD"/>
+  <person displayName="杨行" id="{2A83982F-969A-404C-8E14-8EC589B9D33C}" userId="S::::882bdccd-3819-4087-89d4-50c023a21e6b" providerId="AD"/>
+  <person displayName="侯清辰" id="{6D313C55-0E48-41A1-86A1-7D319EB1EC7A}" userId="S::::3490032a-b5e6-44df-8e9d-242a37fcb4ee" providerId="AD"/>
 </personList>
 </file>
 
@@ -650,30 +650,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{24C78922-2352-47C7-AA3E-B93E41DB1BBC}" ref="C2" dT="2024-06-14T02:49:51" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
+  <threadedComment id="{D1481B4B-23C1-4570-973A-E0064958ED95}" ref="G9" dT="2024-06-14T02:51:06" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{09ACF1F5-A840-47BF-B75C-247AE9CD0532}" ref="I1" dT="2024-05-10T07:08:22" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{b96a1eb1-7e5f-4fba-b27d-f9e0dbe174fa}" ref="I1" dT="2024-06-19T05:39:57" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{09ACF1F5-A840-47BF-B75C-247AE9CD0532}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{A7F200C0-447F-4252-9DE7-D504CD380E95}" ref="G6" dT="2024-06-14T02:50:34" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{04F9BD1A-F36A-40CD-B3D2-9480F496F620}" ref="J1" dT="2024-05-31T03:31:01" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{177A1F41-4E29-40A1-8CE6-04D5C9E6FF36}" ref="C2" dT="2024-06-14T02:49:51" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{20AD04E6-2989-431A-A86A-E14BBA7F3A36}" ref="A4" dT="2024-05-28T04:59:59" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
+  <threadedComment id="{FCF1BD49-ED7E-4E74-93DE-7126B2EAB737}" ref="A4" dT="2024-05-28T04:59:59" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{5030B63F-0A7D-43BC-BA5F-1E1BAF3B56A8}" ref="I1" dT="2024-05-10T07:08:22" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{D9ED48CA-36A2-4C73-9DB5-BF383DEC59F8}" ref="G6" dT="2024-06-14T02:50:34" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{A4BBD722-408A-4CBA-A098-037A03ECBEFA}" ref="G9" dT="2024-06-14T02:51:06" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{82EEC556-5D1B-4E0D-8BB8-601584F8F53E}" ref="J1" dT="2024-05-31T03:31:01" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{203E843A-62FF-4867-9A75-42FB6BC45AD4}" ref="D1" dT="2024-06-09T13:30:31" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
+  <threadedComment id="{8452A783-B87B-446A-A8EF-BB2619EA56B9}" ref="D1" dT="2024-06-09T13:30:31" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -681,32 +684,32 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{96D82714-ABB5-4178-97F4-185E03C09198}" ref="C6" dT="2024-06-14T02:49:20" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
-  </threadedComment>
-  <threadedComment id="{8C2DDA2D-B68F-4A83-BA54-12EBBAB28DC4}" ref="C5" dT="2024-06-14T02:48:45" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
+  <threadedComment id="{79DE55FA-2C46-49BA-BA4C-C216BE7B9473}" ref="C5" dT="2024-06-14T02:48:45" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{F4CCDA7E-06B5-41E4-8301-65C60021ECE8}" ref="E1" dT="2024-06-09T13:30:45" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
+  <threadedComment id="{844955A2-D213-469B-A0B2-B25DD5F7130D}" ref="E1" dT="2024-06-09T13:30:45" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{}">
     <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{41EBFE93-A12B-4E73-88FF-5275073D46BA}" ref="C6" dT="2024-06-14T02:49:20" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{5436E06E-F944-4E39-8148-838170CA8689}" ref="C1" dT="2024-05-10T07:54:02" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{9A399938-EA3F-46B9-8C18-E85697ED88EB}" ref="D1" dT="2024-05-10T08:11:19" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{}">
+  <threadedComment id="{A9B487C6-67A9-4737-8316-E5218D546251}" ref="D1" dT="2024-05-10T08:11:19" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{68312e17-ef90-47ab-8a0d-eb00d545507a}" ref="D1" dT="2024-05-10T08:15:39" personId="{F448D33A-B407-4184-BE70-96D5F6E7DFE7}" parentId="{9A399938-EA3F-46B9-8C18-E85697ED88EB}">
+  <threadedComment id="{a83d5a31-0b33-492c-a622-86a5ea2cfb7e}" ref="D1" dT="2024-05-10T08:15:39" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{A9B487C6-67A9-4737-8316-E5218D546251}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{80E8A191-EDAA-4C89-80DD-C80CB99814A6}" ref="C1" dT="2024-05-10T07:54:02" personId="{2A83982F-969A-404C-8E14-8EC589B9D33C}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -745,30 +748,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -824,63 +827,63 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
 ## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
 ## 目前场景有6个。
@@ -894,13 +897,13 @@
 - BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
 - 正常就是对话类型游戏。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="4" t="str">
@@ -947,9 +950,7 @@
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="4" t="str">
-        <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
-      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
@@ -963,64 +964,60 @@
       <c r="R4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I5" s="2" t="str">
-        <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
-      </c>
-      <c r="J5" s="1" t="str">
+      <c r="I5" s="1"/>
+      <c r="J5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="I6" s="2" t="str">
-        <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
-      </c>
-      <c r="J6" s="1" t="str">
+      <c r="I6" s="1"/>
+      <c r="J6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1028,44 +1025,40 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="I7" s="2" t="str">
-        <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
-      </c>
-      <c r="J7" s="1" t="str">
+      <c r="I7" s="1"/>
+      <c r="J7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="G8" s="2" t="str">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="I8" s="2" t="str">
-        <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
-      </c>
-      <c r="J8" s="1" t="str">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="G9" s="2" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1073,146 +1066,144 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="I9" s="2" t="str">
-        <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
-      </c>
-      <c r="J9" s="1" t="str">
+      <c r="I9" s="1"/>
+      <c r="J9" s="2" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="J10" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="L10" s="1" t="str">
+      <c r="L10" s="2" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="N10" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="1" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="J11" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="J12" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="str">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="J13" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="H14" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="2" t="str">
+      <c r="J14" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="1" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="str">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="1" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="J15" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1262,72 +1253,72 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="4" t="str">
@@ -1356,51 +1347,49 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I4" s="2" t="str">
-        <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
-      </c>
-      <c r="J4" s="1" t="str">
+      <c r="I4" s="1"/>
+      <c r="J4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="N5" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1412,49 +1401,49 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="str">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="M7" s="1" t="str">
+      <c r="M7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="N7" s="6" t="str">
@@ -1509,184 +1498,184 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8100</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>8101</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>8102</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>8103</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>8104</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>8105</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1743,34 +1732,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>body</v>
       </c>
     </row>
@@ -1799,13 +1788,13 @@
       <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J4" s="3" t="str">
@@ -1822,13 +1811,13 @@
       <c r="S4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -1848,7 +1837,7 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
@@ -1858,30 +1847,30 @@
       <c r="E5" s="4">
         <v>8201</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -1896,7 +1885,7 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
@@ -1905,16 +1894,16 @@
       <c r="E6" s="4">
         <v>8202</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J6" s="4" t="str">
@@ -1922,13 +1911,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -1943,7 +1932,7 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
@@ -1951,16 +1940,16 @@
       <c r="E7" s="4">
         <v>8203</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J7" s="3" t="str">
@@ -1968,13 +1957,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -1991,7 +1980,7 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
@@ -1999,53 +1988,53 @@
       <c r="E8" s="4">
         <v>8204</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
       <c r="E9" s="4">
         <v>8205</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
@@ -2102,209 +2091,209 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>0,10000,0</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐。</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>0,1,0</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="1" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2345,54 +2334,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8300</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
